--- a/hoy/fallos/Performance-JAMU.xlsx
+++ b/hoy/fallos/Performance-JAMU.xlsx
@@ -41,9 +41,6 @@
     <t>BVI_MSAN</t>
   </si>
   <si>
-    <t>CAY_BBRY</t>
-  </si>
-  <si>
     <t>CAY_CVVM</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
     <t>CMV_CARL</t>
   </si>
   <si>
+    <t>CMV_MOBY</t>
+  </si>
+  <si>
     <t>JAM_CAR3</t>
   </si>
   <si>
@@ -68,18 +68,12 @@
     <t>JAM_CENT</t>
   </si>
   <si>
-    <t>JAM_CTG1</t>
-  </si>
-  <si>
     <t>JAM_CTG2</t>
   </si>
   <si>
     <t>JAM_CVVM</t>
   </si>
   <si>
-    <t>JAM_DGPT</t>
-  </si>
-  <si>
     <t>JAM_DSLAM</t>
   </si>
   <si>
@@ -101,18 +95,21 @@
     <t>JAM_MOBY</t>
   </si>
   <si>
-    <t>JAM_MONT</t>
-  </si>
-  <si>
     <t>JAM_MSAN</t>
   </si>
   <si>
+    <t>JAM_MYPN</t>
+  </si>
+  <si>
     <t>JAM_PROG</t>
   </si>
   <si>
     <t>JAM_PTMR</t>
   </si>
   <si>
+    <t>JAM_ROSE</t>
+  </si>
+  <si>
     <t>JAM_SABY</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>JAM_WST2</t>
+  </si>
+  <si>
+    <t>JAM_ZBRA</t>
   </si>
   <si>
     <t>JM-PBK-TX-</t>
@@ -527,14 +527,14 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
     </row>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -551,7 +551,7 @@
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -564,13 +564,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -585,19 +585,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3220</v>
+        <v>2791</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3211</v>
+        <v>2775</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -610,19 +610,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3134</v>
+        <v>3597</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>3020</v>
+        <v>3467</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -635,19 +635,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3782</v>
+        <v>1822</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3760</v>
+        <v>1798</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -660,13 +660,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -689,7 +689,7 @@
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
@@ -702,19 +702,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
     </row>
@@ -723,48 +727,44 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>2630</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>1598</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>1032</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1299</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>1283</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -777,19 +777,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>702</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="n">
-        <v>574</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -802,28 +798,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s"/>
       <c r="E14" t="s"/>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -833,7 +829,7 @@
       <c r="F15" t="s"/>
       <c r="G15" t="s"/>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -844,13 +840,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -865,42 +861,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>253</v>
+        <v>496</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>216</v>
+        <v>442</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -915,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -925,7 +917,7 @@
       <c r="F19" t="s"/>
       <c r="G19" t="s"/>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -936,50 +928,50 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s"/>
-      <c r="E20" t="s"/>
-      <c r="F20" t="s"/>
-      <c r="G20" t="s"/>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="D20" t="n">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
+      <c r="F20" t="n">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" t="n">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
@@ -1007,19 +999,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>190</v>
+        <v>6875</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>165</v>
+        <v>6451</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>424</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -1032,15 +1024,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4676</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
+      <c r="D24" t="n">
+        <v>4389</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
@@ -1053,19 +1049,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16657</v>
+        <v>4387</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>16635</v>
+        <v>4071</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1078,19 +1074,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10680</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>10202</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>478</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
         <v>24</v>
@@ -1103,19 +1099,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9691</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>9256</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -1128,52 +1124,44 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>427</v>
+        <v>740</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>498</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="n">
-        <v>409</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
       </c>
-      <c r="H28" t="n">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
-      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
-      <c r="F29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+      <c r="F29" t="s"/>
+      <c r="G29" t="s"/>
       <c r="H29" t="s"/>
       <c r="I29" t="s"/>
     </row>
@@ -1182,44 +1170,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>538</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
       <c r="F30" t="s"/>
       <c r="G30" t="s"/>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s"/>
+      <c r="H30" t="n">
+        <v>538</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1220</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>632</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
-      <c r="F31" t="n">
-        <v>588</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
+      <c r="F31" t="s"/>
+      <c r="G31" t="s"/>
       <c r="H31" t="s"/>
       <c r="I31" t="s"/>
     </row>
@@ -1228,40 +1212,44 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s"/>
-      <c r="E32" t="s"/>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
-      <c r="H32" t="n">
-        <v>502</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="F33" t="s"/>
-      <c r="G33" t="s"/>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
       <c r="H33" t="s"/>
       <c r="I33" t="s"/>
     </row>
@@ -1270,19 +1258,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>118</v>
+        <v>3710</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>110</v>
+        <v>3692</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -1295,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8099</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="n">
-        <v>8093</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -1320,23 +1308,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s"/>
       <c r="H36" t="s"/>
       <c r="I36" t="s"/>
     </row>
@@ -1345,19 +1329,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10061</v>
+        <v>7335</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
       </c>
       <c r="D37" t="n">
-        <v>9966</v>
+        <v>7255</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
       <c r="F37" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -1370,23 +1354,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s"/>
       <c r="H38" t="s"/>
       <c r="I38" t="s"/>
     </row>
@@ -1395,19 +1375,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -1420,19 +1400,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>641</v>
+        <v>448</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" t="n">
-        <v>586</v>
+        <v>407</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
       <c r="F40" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -1445,13 +1425,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
